--- a/DATA_goal/Junction_Flooding_201.xlsx
+++ b/DATA_goal/Junction_Flooding_201.xlsx
@@ -449,8 +449,8 @@
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
@@ -655,103 +655,103 @@
         <v>41633.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>18.64</v>
+        <v>1.86</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>12.45</v>
+        <v>1.25</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.03</v>
+        <v>0.4</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>39.63</v>
+        <v>3.96</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>31.71</v>
+        <v>3.17</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>14.67</v>
+        <v>1.47</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>46.2</v>
+        <v>4.62</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>22.57</v>
+        <v>2.26</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>9.390000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>14.12</v>
+        <v>1.41</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>15.6</v>
+        <v>1.56</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>16.23</v>
+        <v>1.62</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.68</v>
+        <v>0.47</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>14.59</v>
+        <v>1.46</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>20.34</v>
+        <v>2.03</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>12.51</v>
+        <v>1.25</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.44</v>
+        <v>0.34</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.24</v>
+        <v>0.22</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>214.68</v>
+        <v>21.47</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>40.54</v>
+        <v>4.05</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>13.46</v>
+        <v>1.35</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>26.64</v>
+        <v>2.66</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>13.55</v>
+        <v>1.35</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.08</v>
+        <v>0.31</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>23.5</v>
+        <v>2.35</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>11.89</v>
+        <v>1.19</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>10.81</v>
+        <v>1.08</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>12.68</v>
+        <v>1.27</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>16.1</v>
+        <v>1.61</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.45</v>
+        <v>0.35</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>40.97</v>
+        <v>4.1</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>7.38</v>
+        <v>0.74</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>16.83</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41633.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>20.85</v>
+        <v>2.09</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>14.95</v>
+        <v>1.49</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.96</v>
+        <v>0.2</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>45.14</v>
+        <v>4.51</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>36.67</v>
+        <v>3.67</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>16.41</v>
+        <v>1.64</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>62.46</v>
+        <v>6.25</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>25.25</v>
+        <v>2.52</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>11</v>
+        <v>1.1</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>16.27</v>
+        <v>1.63</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>18.07</v>
+        <v>1.81</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>18.94</v>
+        <v>1.89</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.24</v>
+        <v>0.52</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>16.32</v>
+        <v>1.63</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>23.07</v>
+        <v>2.31</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>13.94</v>
+        <v>1.39</v>
       </c>
       <c r="R3" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="X3" s="4" t="n">
         <v>1.58</v>
       </c>
-      <c r="S3" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>241.05</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>45.64</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>15.06</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>30.41</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>15.83</v>
-      </c>
       <c r="Y3" s="4" t="n">
-        <v>2.75</v>
+        <v>0.27</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>30.56</v>
+        <v>3.06</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>13.3</v>
+        <v>1.33</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>11.95</v>
+        <v>1.19</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>14.02</v>
+        <v>1.4</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>18.83</v>
+        <v>1.88</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.27</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>56.79</v>
+        <v>5.68</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>8.380000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>18.83</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41633.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>20.47</v>
+        <v>2.05</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>14.91</v>
+        <v>1.49</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.46</v>
+        <v>0.15</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>44.43</v>
+        <v>4.44</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>36.24</v>
+        <v>3.62</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>16.11</v>
+        <v>1.61</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>62.99</v>
+        <v>6.3</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>24.78</v>
+        <v>2.48</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>10.92</v>
+        <v>1.09</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>16.13</v>
+        <v>1.61</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>17.82</v>
+        <v>1.78</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>18.73</v>
+        <v>1.87</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.15</v>
+        <v>0.51</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>16.02</v>
+        <v>1.6</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>22.73</v>
+        <v>2.27</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>13.6</v>
+        <v>1.36</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.08</v>
+        <v>0.11</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>236.47</v>
+        <v>23.65</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>44.81</v>
+        <v>4.48</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>14.78</v>
+        <v>1.48</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>29.99</v>
+        <v>3</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>15.68</v>
+        <v>1.57</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.52</v>
+        <v>0.25</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>30.48</v>
+        <v>3.05</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>13.06</v>
+        <v>1.31</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>11.65</v>
+        <v>1.17</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>13.69</v>
+        <v>1.37</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>18.63</v>
+        <v>1.86</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>57.18</v>
+        <v>5.72</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>8.27</v>
+        <v>0.83</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>18.48</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41633.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>22.29</v>
+        <v>2.23</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>16.4</v>
+        <v>1.64</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.3</v>
+        <v>0.13</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>48.44</v>
+        <v>4.84</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>39.66</v>
+        <v>3.97</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>17.54</v>
+        <v>1.75</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>68.34999999999999</v>
+        <v>6.83</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>26.99</v>
+        <v>2.7</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>11.97</v>
+        <v>1.2</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>17.71</v>
+        <v>1.77</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>19.44</v>
+        <v>1.94</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>20.48</v>
+        <v>2.05</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>17.44</v>
+        <v>1.74</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>24.81</v>
+        <v>2.48</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>14.72</v>
+        <v>1.47</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.86</v>
+        <v>0.09</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>258.22</v>
+        <v>25.82</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>48.8</v>
+        <v>4.88</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>16.1</v>
+        <v>1.61</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>32.78</v>
+        <v>3.28</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>17.16</v>
+        <v>1.72</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.6</v>
+        <v>0.26</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>33.14</v>
+        <v>3.31</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>14.22</v>
+        <v>1.42</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>12.63</v>
+        <v>1.26</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>14.84</v>
+        <v>1.48</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>20.37</v>
+        <v>2.04</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>62.01</v>
+        <v>6.2</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.06</v>
+        <v>0.91</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>20.13</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41633.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>23.83</v>
+        <v>2.38</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>17.63</v>
+        <v>1.76</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>1.23</v>
+        <v>0.12</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>51.8</v>
+        <v>5.18</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>42.5</v>
+        <v>4.25</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>18.75</v>
+        <v>1.88</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>73.19</v>
+        <v>7.32</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>28.85</v>
+        <v>2.89</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>12.84</v>
+        <v>1.28</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>19.03</v>
+        <v>1.9</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>20.79</v>
+        <v>2.08</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>21.93</v>
+        <v>2.19</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>5.99</v>
+        <v>0.6</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>18.65</v>
+        <v>1.86</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>26.57</v>
+        <v>2.66</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>15.67</v>
+        <v>1.57</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>276.53</v>
+        <v>27.65</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>52.16</v>
+        <v>5.22</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>17.21</v>
+        <v>1.72</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>35.11</v>
+        <v>3.51</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>18.4</v>
+        <v>1.84</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>2.7</v>
+        <v>0.27</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>35.51</v>
+        <v>3.55</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>15.2</v>
+        <v>1.52</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>13.46</v>
+        <v>1.35</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>15.82</v>
+        <v>1.58</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>21.81</v>
+        <v>2.18</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>66.43000000000001</v>
+        <v>6.64</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>9.710000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>21.52</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41633.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>19.41</v>
+        <v>1.94</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>14.36</v>
+        <v>1.44</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>1.01</v>
+        <v>0.1</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>42.2</v>
+        <v>4.22</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>34.61</v>
+        <v>3.46</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>15.27</v>
+        <v>1.53</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>60.87</v>
+        <v>6.09</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>23.5</v>
+        <v>2.35</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>10.46</v>
+        <v>1.05</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>15.49</v>
+        <v>1.55</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>16.94</v>
+        <v>1.69</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>17.87</v>
+        <v>1.79</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>4.88</v>
+        <v>0.49</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>15.19</v>
+        <v>1.52</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>21.64</v>
+        <v>2.16</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>12.77</v>
+        <v>1.28</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>223.88</v>
+        <v>22.39</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>42.52</v>
+        <v>4.25</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>14.02</v>
+        <v>1.4</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>28.61</v>
+        <v>2.86</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>14.99</v>
+        <v>1.5</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>2.2</v>
+        <v>0.22</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>29.32</v>
+        <v>2.93</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>12.38</v>
+        <v>1.24</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>10.97</v>
+        <v>1.1</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>12.89</v>
+        <v>1.29</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>17.77</v>
+        <v>1.78</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>55.26</v>
+        <v>5.53</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>7.9</v>
+        <v>0.79</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>17.53</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41633.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>9.800000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>7.17</v>
+        <v>0.72</v>
       </c>
       <c r="D8" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="M8" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="N8" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O8" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Q8" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="R8" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="Y8" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AA8" s="4" t="n">
         <v>0.63</v>
       </c>
-      <c r="E8" s="4" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>17.37</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>33.43</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>10.92</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>109.43</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>21.57</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>14.45</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>15.75</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>6.25</v>
-      </c>
       <c r="AB8" s="4" t="n">
-        <v>5.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>6.55</v>
+        <v>0.65</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>8.960000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>30.49</v>
+        <v>3.05</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>3.96</v>
+        <v>0.4</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>8.85</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41633.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>8.359999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>6.11</v>
+        <v>0.61</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>18.17</v>
+        <v>1.82</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>14.81</v>
+        <v>1.48</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>6.58</v>
+        <v>0.66</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>26.89</v>
+        <v>2.69</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>10.12</v>
+        <v>1.01</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>4.47</v>
+        <v>0.45</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>6.57</v>
+        <v>0.66</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>7.3</v>
+        <v>0.73</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>7.68</v>
+        <v>0.77</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>2.1</v>
+        <v>0.21</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>6.54</v>
+        <v>0.65</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>9.289999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>5.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>92.23999999999999</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>18.33</v>
+        <v>1.83</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>6.04</v>
+        <v>0.6</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>12.27</v>
+        <v>1.23</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>6.42</v>
+        <v>0.64</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.02</v>
+        <v>0.1</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>12.8</v>
+        <v>1.28</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>5.33</v>
+        <v>0.53</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>4.76</v>
+        <v>0.48</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>5.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>7.65</v>
+        <v>0.76</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>24.4</v>
+        <v>2.44</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>3.37</v>
+        <v>0.34</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>7.55</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41633.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>9.32</v>
+        <v>0.93</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>6.85</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>20.26</v>
+        <v>2.03</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>16.56</v>
+        <v>1.66</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>7.33</v>
+        <v>0.73</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>28.51</v>
+        <v>2.85</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>11.29</v>
+        <v>1.13</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>7.37</v>
+        <v>0.74</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>8.140000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>8.58</v>
+        <v>0.86</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>2.34</v>
+        <v>0.23</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>7.29</v>
+        <v>0.73</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>10.36</v>
+        <v>1.04</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>6.18</v>
+        <v>0.62</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>103.68</v>
+        <v>10.37</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>20.39</v>
+        <v>2.04</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>6.73</v>
+        <v>0.67</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>13.68</v>
+        <v>1.37</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>7.17</v>
+        <v>0.72</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>13.78</v>
+        <v>1.38</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>5.95</v>
+        <v>0.59</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>5.29</v>
+        <v>0.53</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>6.21</v>
+        <v>0.62</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>8.529999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>25.82</v>
+        <v>2.58</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>3.77</v>
+        <v>0.38</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>8.42</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_201.xlsx
+++ b/DATA_goal/Junction_Flooding_201.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44882.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.43</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.21</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.46</v>
+        <v>14.56</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.15</v>
+        <v>11.53</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.49</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.5</v>
+        <v>15</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.42</v>
+        <v>4.17</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.58</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.24</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.67</v>
+        <v>6.75</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.61</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.62</v>
       </c>
       <c r="P2" s="4" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="S2" s="4" t="n">
         <v>0.71</v>
       </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="T2" s="4" t="n">
-        <v>7.84</v>
+        <v>78.41</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.54</v>
+        <v>15.37</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.18</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.29</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.4</v>
+        <v>4.01</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.03</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.76</v>
+        <v>7.61</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.26</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.23</v>
+        <v>12.3</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.8</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.57</v>
+        <v>5.74</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44882.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.92</v>
+        <v>9.16</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.7</v>
+        <v>7.05</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.04</v>
+        <v>20.45</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.65</v>
+        <v>16.47</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.68</v>
+        <v>6.83</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.7</v>
+        <v>26.98</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.13</v>
+        <v>11.34</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.58</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.76</v>
+        <v>7.61</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.84</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.89</v>
+        <v>8.9</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.34</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.75</v>
+        <v>7.5</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.03</v>
+        <v>10.27</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.64</v>
+        <v>6.43</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>10.71</v>
+        <v>107.11</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.1</v>
+        <v>20.98</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.92</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.37</v>
+        <v>13.65</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.79</v>
+        <v>7.85</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.17</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.39</v>
+        <v>13.88</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.59</v>
+        <v>5.91</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.6</v>
+        <v>6.04</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.74</v>
+        <v>7.36</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.93</v>
+        <v>9.25</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.65</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.43</v>
+        <v>24.31</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.43</v>
+        <v>4.33</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.32</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44882.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.88</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.67</v>
+        <v>6.72</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.96</v>
+        <v>19.58</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.58</v>
+        <v>15.84</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.67</v>
+        <v>6.65</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.8</v>
+        <v>28.05</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.09</v>
+        <v>10.85</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.53</v>
+        <v>5.26</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.73</v>
+        <v>7.27</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.8</v>
+        <v>7.95</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.84</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.23</v>
+        <v>2.25</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.71</v>
+        <v>7.12</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.99</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.61</v>
+        <v>6.07</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>10.14</v>
+        <v>101.4</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2</v>
+        <v>19.99</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.57</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.32</v>
+        <v>13.15</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.74</v>
+        <v>7.36</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.1</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.39</v>
+        <v>13.91</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.57</v>
+        <v>5.7</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.6</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.67</v>
+        <v>6.69</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.86</v>
+        <v>8.65</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.54</v>
+        <v>25.43</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.8</v>
+        <v>8.01</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44882.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.18</v>
+        <v>21.84</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.65</v>
+        <v>16.49</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.79</v>
+        <v>47.88</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.93</v>
+        <v>39.31</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.7</v>
+        <v>16.97</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.47</v>
+        <v>64.7</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.66</v>
+        <v>26.6</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.23</v>
+        <v>12.27</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.78</v>
+        <v>17.83</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.93</v>
+        <v>19.28</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.04</v>
+        <v>20.42</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.53</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.73</v>
+        <v>17.27</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.45</v>
+        <v>24.49</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.45</v>
+        <v>14.45</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>25.59</v>
+        <v>255.92</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.83</v>
+        <v>48.3</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.59</v>
+        <v>15.94</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.24</v>
+        <v>32.43</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.74</v>
+        <v>17.38</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.24</v>
+        <v>2.41</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.22</v>
+        <v>32.18</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.4</v>
+        <v>14.02</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.28</v>
+        <v>12.76</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.51</v>
+        <v>15.06</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.05</v>
+        <v>20.48</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.33</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.86</v>
+        <v>58.61</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.98</v>
+        <v>19.79</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_201.xlsx
+++ b/DATA_goal/Junction_Flooding_201.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,36 +445,36 @@
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
@@ -655,103 +655,103 @@
         <v>44882.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>6.43</v>
+        <v>6.427</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.21</v>
+        <v>5.211</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>14.56</v>
+        <v>14.561</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>11.53</v>
+        <v>11.533</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.49</v>
+        <v>4.486</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>15</v>
+        <v>15.002</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>8.210000000000001</v>
+        <v>8.211</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>4.17</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.58</v>
+        <v>5.579</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.24</v>
+        <v>6.239</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>6.75</v>
+        <v>6.747</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.61</v>
+        <v>1.607</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>5.62</v>
+        <v>5.615</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>7.14</v>
+        <v>7.139</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>4.88</v>
+        <v>4.876</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.27</v>
+        <v>0.271</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.71</v>
+        <v>0.709</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>78.41</v>
+        <v>78.413</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>15.37</v>
+        <v>15.366</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>5.18</v>
+        <v>5.184</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>9.359999999999999</v>
+        <v>9.362</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.29</v>
+        <v>6.286</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.96</v>
+        <v>0.958</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>8.109999999999999</v>
+        <v>8.106999999999999</v>
       </c>
       <c r="AA2" s="4" t="n">
         <v>4.01</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.03</v>
+        <v>5.031</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.9</v>
+        <v>6.902</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>7.61</v>
+        <v>7.612</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.26</v>
+        <v>1.257</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>12.3</v>
+        <v>12.304</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.8</v>
+        <v>3.802</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.74</v>
+        <v>5.737</v>
       </c>
     </row>
     <row r="3">
@@ -759,100 +759,100 @@
         <v>44882.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>9.16</v>
+        <v>9.157</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>7.05</v>
+        <v>7.047</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.12</v>
+        <v>0.118</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>20.45</v>
+        <v>20.447</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>16.47</v>
+        <v>16.467</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>6.83</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>26.98</v>
+        <v>26.981</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>11.34</v>
+        <v>11.344</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.58</v>
+        <v>5.581</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>7.61</v>
+        <v>7.612</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8.359999999999999</v>
+        <v>8.363</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>8.9</v>
+        <v>8.904</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.34</v>
+        <v>2.337</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7.5</v>
+        <v>7.496</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>10.27</v>
+        <v>10.271</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>6.43</v>
+        <v>6.425</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.14</v>
+        <v>0.135</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.57</v>
+        <v>0.571</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>107.11</v>
+        <v>107.109</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>20.98</v>
+        <v>20.981</v>
       </c>
       <c r="V3" s="4" t="n">
         <v>6.92</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>13.65</v>
+        <v>13.651</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>7.85</v>
+        <v>7.855</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.17</v>
+        <v>1.173</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>13.88</v>
+        <v>13.881</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>5.91</v>
+        <v>5.908</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.04</v>
+        <v>6.039</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>7.36</v>
+        <v>7.358</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>9.25</v>
+        <v>9.253</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.65</v>
+        <v>0.647</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>24.31</v>
+        <v>24.308</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.33</v>
+        <v>4.331</v>
       </c>
       <c r="AH3" s="4" t="n">
         <v>8.32</v>
@@ -863,103 +863,103 @@
         <v>44882.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>8.800000000000001</v>
+        <v>8.803000000000001</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.72</v>
+        <v>6.719</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.15</v>
+        <v>0.146</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>19.58</v>
+        <v>19.579</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>15.84</v>
+        <v>15.844</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.65</v>
+        <v>6.651</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>28.05</v>
+        <v>28.046</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>10.85</v>
+        <v>10.851</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.26</v>
+        <v>5.265</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>7.27</v>
+        <v>7.266</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.95</v>
+        <v>7.954</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>8.449999999999999</v>
+        <v>8.445</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.25</v>
+        <v>2.254</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.12</v>
+        <v>7.121</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>9.893000000000001</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.07</v>
+        <v>6.074</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.101</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.47</v>
+        <v>0.471</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>101.4</v>
+        <v>101.397</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>19.99</v>
+        <v>19.992</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.57</v>
+        <v>6.574</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>13.15</v>
+        <v>13.152</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>7.36</v>
+        <v>7.358</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.1</v>
+        <v>1.101</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>13.91</v>
+        <v>13.913</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.7</v>
+        <v>5.703</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.6</v>
+        <v>5.604</v>
       </c>
       <c r="AC4" s="4" t="n">
         <v>6.69</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>8.65</v>
+        <v>8.648</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.43</v>
+        <v>0.435</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>25.43</v>
+        <v>25.426</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4</v>
+        <v>3.999</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>8.01</v>
+        <v>8.010999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>19.79</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44882.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>20.97</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>49.96</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>10.84</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>19.48</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>4.2</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_201.xlsx
+++ b/DATA_goal/Junction_Flooding_201.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -967,103 +967,207 @@
         <v>44882.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>21.84</v>
+        <v>21.843</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>16.49</v>
+        <v>16.487</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.61</v>
+        <v>0.611</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>47.88</v>
+        <v>47.877</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>39.31</v>
+        <v>39.305</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>16.97</v>
+        <v>16.973</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>64.7</v>
+        <v>64.69499999999999</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>26.6</v>
+        <v>26.605</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>12.27</v>
+        <v>12.269</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>17.83</v>
+        <v>17.834</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>19.28</v>
+        <v>19.282</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>20.42</v>
+        <v>20.419</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.53</v>
+        <v>5.529</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>17.27</v>
+        <v>17.273</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>24.49</v>
+        <v>24.487</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>14.45</v>
+        <v>14.453</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.2</v>
+        <v>0.199</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>255.92</v>
+        <v>255.916</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>48.3</v>
+        <v>48.304</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>15.94</v>
+        <v>15.944</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>32.43</v>
+        <v>32.432</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>17.38</v>
+        <v>17.379</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.41</v>
+        <v>2.413</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>32.18</v>
+        <v>32.182</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>14.02</v>
+        <v>14.023</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>12.76</v>
+        <v>12.763</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>15.06</v>
+        <v>15.062</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>20.48</v>
+        <v>20.478</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.33</v>
+        <v>0.327</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>58.61</v>
+        <v>58.614</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>9.279999999999999</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>19.79</v>
+        <v>19.786</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44882.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>20.97</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>49.96</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>10.84</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>19.48</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>4.2</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_201.xlsx
+++ b/DATA_goal/Junction_Flooding_201.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -967,207 +967,103 @@
         <v>44882.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>21.843</v>
+        <v>21.84</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>16.487</v>
+        <v>16.49</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.611</v>
+        <v>0.61</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>47.877</v>
+        <v>47.88</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>39.305</v>
+        <v>39.31</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>16.973</v>
+        <v>16.97</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>64.69499999999999</v>
+        <v>64.7</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>26.605</v>
+        <v>26.6</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>12.269</v>
+        <v>12.27</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>17.834</v>
+        <v>17.83</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>19.282</v>
+        <v>19.28</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>20.419</v>
+        <v>20.42</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.529</v>
+        <v>5.53</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>17.273</v>
+        <v>17.27</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>24.487</v>
+        <v>24.49</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>14.453</v>
+        <v>14.45</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.199</v>
+        <v>0.2</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>255.916</v>
+        <v>255.92</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>48.304</v>
+        <v>48.3</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>15.944</v>
+        <v>15.94</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>32.432</v>
+        <v>32.43</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>17.379</v>
+        <v>17.38</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.413</v>
+        <v>2.41</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>32.182</v>
+        <v>32.18</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>14.023</v>
+        <v>14.02</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>12.763</v>
+        <v>12.76</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>15.062</v>
+        <v>15.06</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>20.478</v>
+        <v>20.48</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.327</v>
+        <v>0.33</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>58.614</v>
+        <v>58.61</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>9.279999999999999</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>19.786</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44882.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>20.97</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>49.96</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>10.84</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>19.48</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>4.2</v>
+        <v>19.79</v>
       </c>
     </row>
   </sheetData>
